--- a/Text Analytics/Step2 - Model Improvement and Feature Importances/Results/POS tag descriptions.xlsx
+++ b/Text Analytics/Step2 - Model Improvement and Feature Importances/Results/POS tag descriptions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adhis\Desktop\git_rep\TCD\Text Analytics\Step2 - Model Improvement and Feature Importances\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8111FDAB-8D9B-413F-89FB-C072D238AE6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,239 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>POS Tags</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>coordinating conjunction</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>cardinal digit</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>determiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX </t>
+  </si>
+  <si>
+    <t>existential there (like: â€œthere isâ€ â€¦ think of it like â€œthere existsâ€)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FW </t>
+  </si>
+  <si>
+    <t>foreign word</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>preposition/subordinating conjunction</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>adjective â€˜bigâ€™</t>
+  </si>
+  <si>
+    <t>JJR</t>
+  </si>
+  <si>
+    <t>adjective, comparative â€˜biggerâ€™</t>
+  </si>
+  <si>
+    <t>JJS</t>
+  </si>
+  <si>
+    <t>adjective, superlative â€˜biggestâ€™</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS </t>
+  </si>
+  <si>
+    <t>list marker</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>modal could, will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NN </t>
+  </si>
+  <si>
+    <t>noun, singular â€˜deskâ€™</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNS </t>
+  </si>
+  <si>
+    <t>noun plural â€˜desksâ€™</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNP </t>
+  </si>
+  <si>
+    <t>proper noun, singular â€˜Harrisonâ€™</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNPS </t>
+  </si>
+  <si>
+    <t>proper noun, plural â€˜Americansâ€™</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDT </t>
+  </si>
+  <si>
+    <t>predeterminer â€˜all the kidsâ€™</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS </t>
+  </si>
+  <si>
+    <t>possessive ending parentâ€™s</t>
+  </si>
+  <si>
+    <t>PRP</t>
+  </si>
+  <si>
+    <t>personal pronoun I, he, she</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRP$ </t>
+  </si>
+  <si>
+    <t>possessive pronoun my, his, hers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RB </t>
+  </si>
+  <si>
+    <t>adverb very, silently,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBR </t>
+  </si>
+  <si>
+    <t>adverb, comparative better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBS </t>
+  </si>
+  <si>
+    <t>adverb, superlative best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP </t>
+  </si>
+  <si>
+    <t>particle give up</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>to go â€˜toâ€™ the store.</t>
+  </si>
+  <si>
+    <t>UH</t>
+  </si>
+  <si>
+    <t>interjection, errrrrrrrm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VB </t>
+  </si>
+  <si>
+    <t>verb, base form take</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBD </t>
+  </si>
+  <si>
+    <t>verb, past tense, took</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBG </t>
+  </si>
+  <si>
+    <t>verb, gerund/present participle taking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBN </t>
+  </si>
+  <si>
+    <t>verb, past participle is taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBP </t>
+  </si>
+  <si>
+    <t>verb, sing. present, known-3d take</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBZ </t>
+  </si>
+  <si>
+    <t>verb, 3rd person sing. present takes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDT </t>
+  </si>
+  <si>
+    <t>wh-determiner which</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP </t>
+  </si>
+  <si>
+    <t>wh-pronoun who, what</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP$ </t>
+  </si>
+  <si>
+    <t>possessive wh-pronoun whose</t>
+  </si>
+  <si>
+    <t>WRB</t>
+  </si>
+  <si>
+    <t>wh-adverb where, when</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +284,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +566,309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>